--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Igf2r</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H2">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I2">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J2">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.2393094788836</v>
+        <v>30.81388166666666</v>
       </c>
       <c r="N2">
-        <v>27.2393094788836</v>
+        <v>92.44164499999999</v>
       </c>
       <c r="O2">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="P2">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="Q2">
-        <v>16211.06207459795</v>
+        <v>262.9632318466816</v>
       </c>
       <c r="R2">
-        <v>16211.06207459795</v>
+        <v>2366.669086620135</v>
       </c>
       <c r="S2">
-        <v>0.1152512220100863</v>
+        <v>0.00169795216656922</v>
       </c>
       <c r="T2">
-        <v>0.1152512220100863</v>
+        <v>0.00169795216656922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H3">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I3">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J3">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.6660057997323</v>
+        <v>82.73043066666666</v>
       </c>
       <c r="N3">
-        <v>82.6660057997323</v>
+        <v>248.191292</v>
       </c>
       <c r="O3">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="P3">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="Q3">
-        <v>49197.42009309769</v>
+        <v>706.0149596053105</v>
       </c>
       <c r="R3">
-        <v>49197.42009309769</v>
+        <v>6354.134636447796</v>
       </c>
       <c r="S3">
-        <v>0.3497650406482515</v>
+        <v>0.00455873477776184</v>
       </c>
       <c r="T3">
-        <v>0.3497650406482515</v>
+        <v>0.00455873477776184</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H4">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I4">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J4">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.226576679576841</v>
+        <v>8.871077999999999</v>
       </c>
       <c r="N4">
-        <v>8.226576679576841</v>
+        <v>26.613234</v>
       </c>
       <c r="O4">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="P4">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="Q4">
-        <v>4895.922391771505</v>
+        <v>75.70507883683798</v>
       </c>
       <c r="R4">
-        <v>4895.922391771505</v>
+        <v>681.345709531542</v>
       </c>
       <c r="S4">
-        <v>0.03480716043906732</v>
+        <v>0.0004888272848207497</v>
       </c>
       <c r="T4">
-        <v>0.03480716043906732</v>
+        <v>0.0004888272848207496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H5">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I5">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J5">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.6661979745589</v>
+        <v>61.624648</v>
       </c>
       <c r="N5">
-        <v>57.6661979745589</v>
+        <v>184.873944</v>
       </c>
       <c r="O5">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="P5">
-        <v>0.3280251679447602</v>
+        <v>0.3348437033488628</v>
       </c>
       <c r="Q5">
-        <v>34319.16347572342</v>
+        <v>525.899877684808</v>
       </c>
       <c r="R5">
-        <v>34319.16347572342</v>
+        <v>4733.098899163271</v>
       </c>
       <c r="S5">
-        <v>0.2439892901982574</v>
+        <v>0.003395732667424911</v>
       </c>
       <c r="T5">
-        <v>0.2439892901982574</v>
+        <v>0.00339573266742491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H6">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I6">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J6">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.2393094788836</v>
+        <v>30.81388166666666</v>
       </c>
       <c r="N6">
-        <v>27.2393094788836</v>
+        <v>92.44164499999999</v>
       </c>
       <c r="O6">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="P6">
-        <v>0.154946561076423</v>
+        <v>0.1674303154124352</v>
       </c>
       <c r="Q6">
-        <v>5583.486183081701</v>
+        <v>18447.08961123799</v>
       </c>
       <c r="R6">
-        <v>5583.486183081701</v>
+        <v>166023.806501142</v>
       </c>
       <c r="S6">
-        <v>0.03969533906633675</v>
+        <v>0.1191127579028245</v>
       </c>
       <c r="T6">
-        <v>0.03969533906633675</v>
+        <v>0.1191127579028245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H7">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I7">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J7">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.6660057997323</v>
+        <v>82.73043066666666</v>
       </c>
       <c r="N7">
-        <v>82.6660057997323</v>
+        <v>248.191292</v>
       </c>
       <c r="O7">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="P7">
-        <v>0.4702326733547258</v>
+        <v>0.4495240895180934</v>
       </c>
       <c r="Q7">
-        <v>16944.79449088715</v>
+        <v>49527.53712088243</v>
       </c>
       <c r="R7">
-        <v>16944.79449088715</v>
+        <v>445747.8340879419</v>
       </c>
       <c r="S7">
-        <v>0.1204676327064743</v>
+        <v>0.319799039465224</v>
       </c>
       <c r="T7">
-        <v>0.1204676327064743</v>
+        <v>0.319799039465224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H8">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I8">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J8">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.226576679576841</v>
+        <v>8.871077999999999</v>
       </c>
       <c r="N8">
-        <v>8.226576679576841</v>
+        <v>26.613234</v>
       </c>
       <c r="O8">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="P8">
-        <v>0.04679559762409119</v>
+        <v>0.04820189172060866</v>
       </c>
       <c r="Q8">
-        <v>1686.275390354057</v>
+        <v>5310.774299211635</v>
       </c>
       <c r="R8">
-        <v>1686.275390354057</v>
+        <v>47796.96869290472</v>
       </c>
       <c r="S8">
-        <v>0.01198843718502387</v>
+        <v>0.03429164094227465</v>
       </c>
       <c r="T8">
-        <v>0.01198843718502387</v>
+        <v>0.03429164094227464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>598.661662</v>
+      </c>
+      <c r="H9">
+        <v>1795.984986</v>
+      </c>
+      <c r="I9">
+        <v>0.7114169116232693</v>
+      </c>
+      <c r="J9">
+        <v>0.7114169116232691</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>61.624648</v>
+      </c>
+      <c r="N9">
+        <v>184.873944</v>
+      </c>
+      <c r="O9">
+        <v>0.3348437033488628</v>
+      </c>
+      <c r="P9">
+        <v>0.3348437033488628</v>
+      </c>
+      <c r="Q9">
+        <v>36892.31419184498</v>
+      </c>
+      <c r="R9">
+        <v>332030.8277266048</v>
+      </c>
+      <c r="S9">
+        <v>0.2382134733129461</v>
+      </c>
+      <c r="T9">
+        <v>0.2382134733129461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.049701</v>
+      </c>
+      <c r="I10">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J10">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>30.81388166666666</v>
+      </c>
+      <c r="N10">
+        <v>92.44164499999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1674303154124352</v>
+      </c>
+      <c r="P10">
+        <v>0.1674303154124352</v>
+      </c>
+      <c r="Q10">
+        <v>21.05308135534944</v>
+      </c>
+      <c r="R10">
+        <v>189.477732198145</v>
+      </c>
+      <c r="S10">
+        <v>0.0001359396325076948</v>
+      </c>
+      <c r="T10">
+        <v>0.0001359396325076948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.049701</v>
+      </c>
+      <c r="I11">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J11">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>82.73043066666666</v>
+      </c>
+      <c r="N11">
+        <v>248.191292</v>
+      </c>
+      <c r="O11">
+        <v>0.4495240895180934</v>
+      </c>
+      <c r="P11">
+        <v>0.4495240895180934</v>
+      </c>
+      <c r="Q11">
+        <v>56.52421548929912</v>
+      </c>
+      <c r="R11">
+        <v>508.7179394036921</v>
+      </c>
+      <c r="S11">
+        <v>0.0003649765538690918</v>
+      </c>
+      <c r="T11">
+        <v>0.0003649765538690918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.049701</v>
+      </c>
+      <c r="I12">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J12">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.871077999999999</v>
+      </c>
+      <c r="N12">
+        <v>26.613234</v>
+      </c>
+      <c r="O12">
+        <v>0.04820189172060866</v>
+      </c>
+      <c r="P12">
+        <v>0.04820189172060866</v>
+      </c>
+      <c r="Q12">
+        <v>6.061019149225999</v>
+      </c>
+      <c r="R12">
+        <v>54.549172343034</v>
+      </c>
+      <c r="S12">
+        <v>3.913596788332021E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.91359678833202E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.049701</v>
+      </c>
+      <c r="I13">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J13">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>61.624648</v>
+      </c>
+      <c r="N13">
+        <v>184.873944</v>
+      </c>
+      <c r="O13">
+        <v>0.3348437033488628</v>
+      </c>
+      <c r="P13">
+        <v>0.3348437033488628</v>
+      </c>
+      <c r="Q13">
+        <v>42.10403421008267</v>
+      </c>
+      <c r="R13">
+        <v>378.936307890744</v>
+      </c>
+      <c r="S13">
+        <v>0.0002718655212984164</v>
+      </c>
+      <c r="T13">
+        <v>0.0002718655212984164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>233.627271</v>
+      </c>
+      <c r="H14">
+        <v>700.881813</v>
+      </c>
+      <c r="I14">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J14">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.81388166666666</v>
+      </c>
+      <c r="N14">
+        <v>92.44164499999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1674303154124352</v>
+      </c>
+      <c r="P14">
+        <v>0.1674303154124352</v>
+      </c>
+      <c r="Q14">
+        <v>7198.963082700264</v>
+      </c>
+      <c r="R14">
+        <v>64790.66774430238</v>
+      </c>
+      <c r="S14">
+        <v>0.0464836657105338</v>
+      </c>
+      <c r="T14">
+        <v>0.04648366571053379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>204.9789913878</v>
-      </c>
-      <c r="H9">
-        <v>204.9789913878</v>
-      </c>
-      <c r="I9">
-        <v>0.2561872867043377</v>
-      </c>
-      <c r="J9">
-        <v>0.2561872867043377</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>57.6661979745589</v>
-      </c>
-      <c r="N9">
-        <v>57.6661979745589</v>
-      </c>
-      <c r="O9">
-        <v>0.3280251679447602</v>
-      </c>
-      <c r="P9">
-        <v>0.3280251679447602</v>
-      </c>
-      <c r="Q9">
-        <v>11820.35909799428</v>
-      </c>
-      <c r="R9">
-        <v>11820.35909799428</v>
-      </c>
-      <c r="S9">
-        <v>0.0840358777465028</v>
-      </c>
-      <c r="T9">
-        <v>0.0840358777465028</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>233.627271</v>
+      </c>
+      <c r="H15">
+        <v>700.881813</v>
+      </c>
+      <c r="I15">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J15">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>82.73043066666666</v>
+      </c>
+      <c r="N15">
+        <v>248.191292</v>
+      </c>
+      <c r="O15">
+        <v>0.4495240895180934</v>
+      </c>
+      <c r="P15">
+        <v>0.4495240895180934</v>
+      </c>
+      <c r="Q15">
+        <v>19328.08474530804</v>
+      </c>
+      <c r="R15">
+        <v>173952.7627077724</v>
+      </c>
+      <c r="S15">
+        <v>0.1248013387212385</v>
+      </c>
+      <c r="T15">
+        <v>0.1248013387212385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>233.627271</v>
+      </c>
+      <c r="H16">
+        <v>700.881813</v>
+      </c>
+      <c r="I16">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J16">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.871077999999999</v>
+      </c>
+      <c r="N16">
+        <v>26.613234</v>
+      </c>
+      <c r="O16">
+        <v>0.04820189172060866</v>
+      </c>
+      <c r="P16">
+        <v>0.04820189172060866</v>
+      </c>
+      <c r="Q16">
+        <v>2072.525743968138</v>
+      </c>
+      <c r="R16">
+        <v>18652.73169571324</v>
+      </c>
+      <c r="S16">
+        <v>0.01338228752562995</v>
+      </c>
+      <c r="T16">
+        <v>0.01338228752562995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>233.627271</v>
+      </c>
+      <c r="H17">
+        <v>700.881813</v>
+      </c>
+      <c r="I17">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J17">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>61.624648</v>
+      </c>
+      <c r="N17">
+        <v>184.873944</v>
+      </c>
+      <c r="O17">
+        <v>0.3348437033488628</v>
+      </c>
+      <c r="P17">
+        <v>0.3348437033488628</v>
+      </c>
+      <c r="Q17">
+        <v>14397.19833857561</v>
+      </c>
+      <c r="R17">
+        <v>129574.7850471805</v>
+      </c>
+      <c r="S17">
+        <v>0.0929626318471934</v>
+      </c>
+      <c r="T17">
+        <v>0.09296263184719339</v>
       </c>
     </row>
   </sheetData>
